--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tasks</t>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">   Explore Hardware</t>
   </si>
   <si>
-    <t xml:space="preserve">      Tools Learning</t>
-  </si>
-  <si>
     <t>Image Sensor Integration</t>
   </si>
   <si>
@@ -54,6 +51,18 @@
   </si>
   <si>
     <t xml:space="preserve">      Documentation</t>
+  </si>
+  <si>
+    <t>Vivado design suite</t>
+  </si>
+  <si>
+    <t>Xilinx SDK</t>
+  </si>
+  <si>
+    <t>Vivado HlS</t>
+  </si>
+  <si>
+    <t>Teraterm</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14395888755872238"/>
+          <c:y val="8.3035447109945232E-2"/>
+          <c:w val="0.82672119338039785"/>
+          <c:h val="0.90569248120333401"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -186,24 +205,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>     Literature review</c:v>
                 </c:pt>
@@ -211,18 +226,27 @@
                   <c:v>   Explore Hardware</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>      Tools Learning</c:v>
+                  <c:v>Vivado design suite</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Xilinx SDK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vivado HlS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Teraterm</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Image Sensor Integration</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>    IP cores designing</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>          Testing</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>      Documentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -230,10 +254,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44479</c:v>
                 </c:pt>
@@ -244,15 +268,24 @@
                   <c:v>44540</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>44555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>44602</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44630</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44691</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>44722</c:v>
                 </c:pt>
               </c:numCache>
@@ -303,20 +336,14 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>     Literature review</c:v>
                 </c:pt>
@@ -324,18 +351,27 @@
                   <c:v>   Explore Hardware</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>      Tools Learning</c:v>
+                  <c:v>Vivado design suite</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Xilinx SDK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vivado HlS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Teraterm</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Image Sensor Integration</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>    IP cores designing</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>          Testing</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>      Documentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -343,10 +379,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -354,18 +390,27 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -382,11 +427,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="352183640"/>
-        <c:axId val="352188736"/>
+        <c:axId val="176720184"/>
+        <c:axId val="176721752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352183640"/>
+        <c:axId val="176720184"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -398,11 +443,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -416,9 +461,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -428,7 +471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352188736"/>
+        <c:crossAx val="176721752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -436,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352188736"/>
+        <c:axId val="176721752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44752"/>
@@ -448,9 +491,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -476,9 +519,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -488,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352183640"/>
+        <c:crossAx val="176720184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -505,28 +546,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -589,33 +619,29 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -623,45 +649,35 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -670,15 +686,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -690,9 +713,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -700,9 +723,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -710,12 +733,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -724,20 +747,18 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -749,9 +770,9 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -767,16 +788,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -788,20 +807,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -812,14 +831,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -831,13 +850,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -849,7 +868,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -857,14 +876,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -876,14 +895,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -894,14 +913,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -913,14 +932,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -931,9 +950,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -942,7 +959,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -950,7 +967,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -958,16 +975,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -980,17 +995,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -999,19 +1014,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1020,13 +1025,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1035,9 +1041,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1046,7 +1050,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1054,9 +1058,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1067,9 +1071,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1078,7 +1080,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1089,15 +1091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1382,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,66 +1431,99 @@
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>44540</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
+        <v>44555</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44571</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>44602</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44630</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44691</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44722</v>
       </c>
       <c r="C8">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44691</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44722</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>44752</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
